--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Max.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Max.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.955995626755165E-14</v>
+        <v>2.438729849902814E-05</v>
       </c>
       <c r="D2">
-        <v>0.03496061745321188</v>
+        <v>0.1236014393403301</v>
       </c>
       <c r="E2">
-        <v>0.3658596089349784</v>
+        <v>0.584289849462961</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.691044125953377E-15</v>
+        <v>2.183980475909259E-12</v>
       </c>
       <c r="C3">
-        <v>8.032666209594646E-09</v>
+        <v>0.001187950236302112</v>
       </c>
       <c r="D3">
-        <v>0.0222307291076446</v>
+        <v>0.1155224455664189</v>
       </c>
       <c r="E3">
-        <v>0.3236675139086057</v>
+        <v>0.4948953125759609</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.321669688613381E-17</v>
+        <v>3.409259119931335E-14</v>
       </c>
       <c r="C4">
-        <v>1.588828008653702E-09</v>
+        <v>0.001073104153047114</v>
       </c>
       <c r="D4">
-        <v>0.01665716416846134</v>
+        <v>0.08248514375558298</v>
       </c>
       <c r="E4">
-        <v>0.2854435934952038</v>
+        <v>0.4143225657740967</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.549112679303214E-23</v>
+        <v>2.380640363208162E-08</v>
       </c>
       <c r="D5">
-        <v>0.000256870885425719</v>
+        <v>0.004220506989166603</v>
       </c>
       <c r="E5">
-        <v>0.02171716625600762</v>
+        <v>0.03292316497354641</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.763358668632657E-05</v>
       </c>
       <c r="D2">
-        <v>0.02663666091673463</v>
+        <v>0.1067081964413131</v>
       </c>
       <c r="E2">
-        <v>0.3658596089350029</v>
+        <v>0.6620669446318078</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.001346082914235243</v>
       </c>
       <c r="D3">
-        <v>0.01693769836773036</v>
+        <v>0.0997334001988444</v>
       </c>
       <c r="E3">
-        <v>0.3236675139086273</v>
+        <v>0.5607727531308762</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.001215949222004488</v>
       </c>
       <c r="D4">
-        <v>0.01269117269978093</v>
+        <v>0.07121147593698561</v>
       </c>
       <c r="E4">
-        <v>0.2854435934952229</v>
+        <v>0.4694746545164075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.697536664354322E-08</v>
       </c>
       <c r="D5">
-        <v>0.0001957111508005635</v>
+        <v>0.003643668644034803</v>
       </c>
       <c r="E5">
-        <v>0.02171716625600935</v>
+        <v>0.03730569555791484</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.013444709329602E-07</v>
+        <v>3.278497091721097E-06</v>
       </c>
       <c r="C2">
-        <v>1.361756818559186E-05</v>
+        <v>0.003050246220774824</v>
       </c>
       <c r="D2">
-        <v>0.2022714833255239</v>
+        <v>0.8588525024148915</v>
       </c>
       <c r="E2">
-        <v>0.6996950518224571</v>
+        <v>0.9697180417558001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.048071879604898E-06</v>
+        <v>2.229370101113288E-05</v>
       </c>
       <c r="C3">
-        <v>0.0006461756826888257</v>
+        <v>0.01103680953317707</v>
       </c>
       <c r="D3">
-        <v>0.1211187136798926</v>
+        <v>0.6168778258139214</v>
       </c>
       <c r="E3">
-        <v>0.4843334564770065</v>
+        <v>0.6805195557530022</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.08104089514155E-06</v>
+        <v>6.612099022439717E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001620291158384526</v>
+        <v>0.002936712507453067</v>
       </c>
       <c r="D4">
-        <v>0.07565547715308271</v>
+        <v>0.4416445656454649</v>
       </c>
       <c r="E4">
-        <v>0.4657667777509991</v>
+        <v>0.6055420661490584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.909822742276567E-06</v>
+        <v>2.076994439830034E-05</v>
       </c>
       <c r="C5">
-        <v>8.486346279457801E-05</v>
+        <v>0.006488512101692222</v>
       </c>
       <c r="D5">
-        <v>0.1363938532394394</v>
+        <v>0.8181956015862759</v>
       </c>
       <c r="E5">
-        <v>0.4717081075110235</v>
+        <v>0.7122850722825392</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.031589966768446E-08</v>
+        <v>4.96652837099915E-07</v>
       </c>
       <c r="C2">
-        <v>1.458909525503285E-06</v>
+        <v>0.0005194103187024707</v>
       </c>
       <c r="D2">
-        <v>0.09118852619924153</v>
+        <v>0.4783497257479737</v>
       </c>
       <c r="E2">
-        <v>1.245455460903948</v>
+        <v>1.251484198240786</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.367099139082082E-08</v>
+        <v>5.30035999530297E-07</v>
       </c>
       <c r="C3">
-        <v>3.085534049839922E-05</v>
+        <v>0.001746085699123397</v>
       </c>
       <c r="D3">
-        <v>0.05264076056580122</v>
+        <v>0.2315523203444246</v>
       </c>
       <c r="E3">
-        <v>0.5556871998096851</v>
+        <v>0.5836018294026056</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.443534520072915E-07</v>
+        <v>3.397047964529607E-06</v>
       </c>
       <c r="C4">
-        <v>6.845799315304191E-06</v>
+        <v>0.0004869161330086471</v>
       </c>
       <c r="D4">
-        <v>0.03835448965761987</v>
+        <v>0.2164427902680356</v>
       </c>
       <c r="E4">
-        <v>0.5538963232362989</v>
+        <v>0.6322978441499242</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.848515343462404E-07</v>
+        <v>1.823860200208514E-06</v>
       </c>
       <c r="C5">
-        <v>7.790873068257631E-06</v>
+        <v>0.0006186310519116159</v>
       </c>
       <c r="D5">
-        <v>0.08153121125859564</v>
+        <v>0.4280362603778582</v>
       </c>
       <c r="E5">
-        <v>0.883455345719077</v>
+        <v>0.8793987462358255</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Max.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Max.xlsx
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.438729849902814E-05</v>
+        <v>2.437496767148889E-05</v>
       </c>
       <c r="D2">
-        <v>0.1236014393403301</v>
+        <v>0.09088720653956146</v>
       </c>
       <c r="E2">
-        <v>0.584289849462961</v>
+        <v>0.4458999904664008</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.183980475909259E-12</v>
+        <v>2.183968937109617E-12</v>
       </c>
       <c r="C3">
-        <v>0.001187950236302112</v>
+        <v>0.001179565666721849</v>
       </c>
       <c r="D3">
-        <v>0.1155224455664189</v>
+        <v>0.07925110730391915</v>
       </c>
       <c r="E3">
-        <v>0.4948953125759609</v>
+        <v>0.3964840132176871</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.409259119931335E-14</v>
+        <v>3.409239115768776E-14</v>
       </c>
       <c r="C4">
-        <v>0.001073104153047114</v>
+        <v>0.001066828779339647</v>
       </c>
       <c r="D4">
-        <v>0.08248514375558298</v>
+        <v>0.06477007120855503</v>
       </c>
       <c r="E4">
-        <v>0.4143225657740967</v>
+        <v>0.3501040751224138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.380640363208162E-08</v>
+        <v>2.374640474856044E-08</v>
       </c>
       <c r="D5">
-        <v>0.004220506989166603</v>
+        <v>0.003580656840928627</v>
       </c>
       <c r="E5">
-        <v>0.03292316497354641</v>
+        <v>0.02923697393808194</v>
       </c>
     </row>
   </sheetData>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.763358668632657E-05</v>
+        <v>2.76196144543578E-05</v>
       </c>
       <c r="D2">
-        <v>0.1067081964413131</v>
+        <v>0.07846518569028681</v>
       </c>
       <c r="E2">
-        <v>0.6620669446318078</v>
+        <v>0.5052554730683479</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001346082914235243</v>
+        <v>0.001336582241976157</v>
       </c>
       <c r="D3">
-        <v>0.0997334001988444</v>
+        <v>0.06841945184062941</v>
       </c>
       <c r="E3">
-        <v>0.5607727531308762</v>
+        <v>0.4492615428244429</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001215949222004488</v>
+        <v>0.001208838508887113</v>
       </c>
       <c r="D4">
-        <v>0.07121147593698561</v>
+        <v>0.05591761324890304</v>
       </c>
       <c r="E4">
-        <v>0.4694746545164075</v>
+        <v>0.396707790718064</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.697536664354322E-08</v>
+        <v>2.690738107519781E-08</v>
       </c>
       <c r="D5">
-        <v>0.003643668644034803</v>
+        <v>0.003091270098551975</v>
       </c>
       <c r="E5">
-        <v>0.03730569555791484</v>
+        <v>0.03312882129179109</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.278497091721097E-06</v>
+        <v>3.278472098474135E-06</v>
       </c>
       <c r="C2">
-        <v>0.003050246220774824</v>
+        <v>0.003032755898708039</v>
       </c>
       <c r="D2">
-        <v>0.8588525024148915</v>
+        <v>0.5823644742193366</v>
       </c>
       <c r="E2">
-        <v>0.9697180417558001</v>
+        <v>0.6659852986845426</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.229370101113288E-05</v>
+        <v>2.22924718813326E-05</v>
       </c>
       <c r="C3">
-        <v>0.01103680953317707</v>
+        <v>0.01094106145566737</v>
       </c>
       <c r="D3">
-        <v>0.6168778258139214</v>
+        <v>0.4135478565326619</v>
       </c>
       <c r="E3">
-        <v>0.6805195557530022</v>
+        <v>0.5113972578016854</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.612099022439717E-05</v>
+        <v>6.611256234481376E-05</v>
       </c>
       <c r="C4">
-        <v>0.002936712507453067</v>
+        <v>0.002928691932974728</v>
       </c>
       <c r="D4">
-        <v>0.4416445656454649</v>
+        <v>0.3509623647012626</v>
       </c>
       <c r="E4">
-        <v>0.6055420661490584</v>
+        <v>0.5150582967402831</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.076994439830034E-05</v>
+        <v>2.076903987060008E-05</v>
       </c>
       <c r="C5">
-        <v>0.006488512101692222</v>
+        <v>0.006421218662127675</v>
       </c>
       <c r="D5">
-        <v>0.8181956015862759</v>
+        <v>0.5040422497805486</v>
       </c>
       <c r="E5">
-        <v>0.7122850722825392</v>
+        <v>0.5201943099942047</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.96652837099915E-07</v>
+        <v>4.966311329314386E-07</v>
       </c>
       <c r="C2">
-        <v>0.0005194103187024707</v>
+        <v>0.0005182112305667888</v>
       </c>
       <c r="D2">
-        <v>0.4783497257479737</v>
+        <v>0.3212156744753464</v>
       </c>
       <c r="E2">
-        <v>1.251484198240786</v>
+        <v>0.775899308654714</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.30035999530297E-07</v>
+        <v>5.299988190966853E-07</v>
       </c>
       <c r="C3">
-        <v>0.001746085699123397</v>
+        <v>0.001731461407493704</v>
       </c>
       <c r="D3">
-        <v>0.2315523203444246</v>
+        <v>0.169168646809207</v>
       </c>
       <c r="E3">
-        <v>0.5836018294026056</v>
+        <v>0.4311704658185009</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.397047964529607E-06</v>
+        <v>3.396088080967769E-06</v>
       </c>
       <c r="C4">
-        <v>0.0004869161330086471</v>
+        <v>0.0004859890105311957</v>
       </c>
       <c r="D4">
-        <v>0.2164427902680356</v>
+        <v>0.1748139439746624</v>
       </c>
       <c r="E4">
-        <v>0.6322978441499242</v>
+        <v>0.5412910095236106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.823860200208514E-06</v>
+        <v>1.82357813169359E-06</v>
       </c>
       <c r="C5">
-        <v>0.0006186310519116159</v>
+        <v>0.0006171561129647565</v>
       </c>
       <c r="D5">
-        <v>0.4280362603778582</v>
+        <v>0.2994238988798891</v>
       </c>
       <c r="E5">
-        <v>0.8793987462358255</v>
+        <v>0.643701610727723</v>
       </c>
     </row>
   </sheetData>
